--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,9 +386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -398,6 +401,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,7 +1268,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,19 +1303,19 @@
       <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="26" t="s">
         <v>51</v>
       </c>
@@ -1331,7 +1338,9 @@
       <c r="I2" s="25">
         <v>44310</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="35">
+        <v>44312</v>
+      </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1340,34 +1349,34 @@
       <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>5</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>50</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29">
-        <v>10</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28">
+        <v>10</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
       <c r="Q3" s="27">
         <f t="shared" ref="Q3:Q31" si="0">E3-(SUM(F3:P3))</f>
         <v>40</v>
@@ -1488,34 +1497,34 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="29">
-        <v>10</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="28">
+        <v>10</v>
+      </c>
+      <c r="E9" s="31">
         <v>100</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28">
         <v>20</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
       <c r="Q9" s="27">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -1540,9 +1549,12 @@
       <c r="F10">
         <v>24</v>
       </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
       <c r="Q10" s="27">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1819,34 +1831,34 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>30</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>30</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29">
-        <v>12</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28">
+        <v>12</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2030,34 +2042,34 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>20</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>20</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29">
-        <v>12</v>
-      </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28">
+        <v>12</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2115,7 +2127,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="34">
         <v>44299</v>
       </c>
       <c r="D2">
@@ -2129,7 +2141,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>44304</v>
       </c>
       <c r="D3">
@@ -2143,7 +2155,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <v>44309</v>
       </c>
       <c r="D4">
@@ -2157,7 +2169,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>44310</v>
       </c>
       <c r="D5">

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sales" sheetId="2" r:id="rId2"/>
-    <sheet name="bill" sheetId="3" r:id="rId3"/>
+    <sheet name="April" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>ACLONAC-SP</t>
   </si>
@@ -191,10 +191,10 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Doctor Comission</t>
+    <t>Doctor Comission (30%)</t>
+  </si>
+  <si>
+    <t>SHREE GANESHAY MEDICAL Outstanding ( 01-06-2021 TO 30-06-2021 )</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +302,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,11 +335,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,10 +452,37 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1363,7 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="27"/>
   </cols>
   <sheetData>
@@ -1303,19 +1383,19 @@
       <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="26" t="s">
         <v>51</v>
       </c>
@@ -1338,11 +1418,15 @@
       <c r="I2" s="25">
         <v>44310</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="34">
         <v>44312</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="K2" s="25">
+        <v>44316</v>
+      </c>
+      <c r="L2" s="25">
+        <v>44318</v>
+      </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
@@ -1550,11 +1634,11 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="27">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1690,9 +1774,15 @@
       <c r="F16">
         <v>24</v>
       </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
       <c r="Q16" s="27">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1720,9 +1810,12 @@
       <c r="I17">
         <v>24</v>
       </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
       <c r="Q17" s="27">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1747,9 +1840,15 @@
       <c r="I18">
         <v>24</v>
       </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
       <c r="Q18" s="27">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1774,9 +1873,15 @@
       <c r="I19">
         <v>24</v>
       </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
       <c r="Q19" s="27">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1825,9 +1930,12 @@
       <c r="H21">
         <v>12</v>
       </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
       <c r="Q21" s="27">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2086,225 +2194,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34">
-        <v>44299</v>
-      </c>
-      <c r="D2">
-        <v>12246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" s="38">
+        <v>11</v>
+      </c>
+      <c r="C3" s="39">
+        <v>44352</v>
+      </c>
+      <c r="D3" s="40">
+        <v>3964</v>
+      </c>
+      <c r="E3" s="43">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34">
-        <v>44304</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="38">
+        <v>12</v>
+      </c>
+      <c r="C4" s="39">
+        <v>44356</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1650</v>
+      </c>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="34">
-        <v>44309</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5" s="38">
+        <v>13</v>
+      </c>
+      <c r="C5" s="39">
+        <v>44360</v>
+      </c>
+      <c r="D5" s="40">
+        <v>2700</v>
+      </c>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="34">
-        <v>44310</v>
-      </c>
-      <c r="D5">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" s="38">
+        <v>14</v>
+      </c>
+      <c r="C6" s="39">
+        <v>44371</v>
+      </c>
+      <c r="D6" s="40">
+        <v>2731</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B7" s="38">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
+      <c r="C7" s="39">
+        <v>44377</v>
+      </c>
+      <c r="D7" s="45">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="37">
+        <f>SUM(D3:D7)</f>
+        <v>12945</v>
+      </c>
+      <c r="E8" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>